--- a/docs/Tabela_Comissoes_Olyva.xlsx
+++ b/docs/Tabela_Comissoes_Olyva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -35,21 +35,6 @@
   <si>
     <t>% COMISSÃO</t>
   </si>
-  <si>
-    <t>CLIENTE A</t>
-  </si>
-  <si>
-    <t>PROJETO A</t>
-  </si>
-  <si>
-    <t>PROJETO B</t>
-  </si>
-  <si>
-    <t>CLIENTE B</t>
-  </si>
-  <si>
-    <t>PROJETO C</t>
-  </si>
 </sst>
 </file>
 
@@ -58,7 +43,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,10 +210,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,19 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +553,7 @@
   <dimension ref="B3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,430 +579,412 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="17">
+      <c r="H3" s="7"/>
+      <c r="I3" s="6">
         <v>20</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <f>D4*$I$3%</f>
-        <v>500</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1900</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:E31" si="0">D5*$I$3%</f>
-        <v>380</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:E6" si="0">D5*$I$3%</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="16">
+      <c r="H5" s="7"/>
+      <c r="I5" s="17">
         <f>SUM(E4:E31)</f>
-        <v>2450</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>7850</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>1570</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" ref="E5:E31" si="1">D7*$I$3%</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/Tabela_Comissoes_Olyva.xlsx
+++ b/docs/Tabela_Comissoes_Olyva.xlsx
@@ -58,7 +58,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,10 +225,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,19 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
   <dimension ref="B3:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B4" sqref="B4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,15 +594,15 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="17">
+      <c r="H3" s="7"/>
+      <c r="I3" s="6">
         <v>20</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -611,18 +611,18 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2500</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>D4*$I$3%</f>
         <v>500</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -631,23 +631,23 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1900</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" ref="E5:E31" si="0">D5*$I$3%</f>
         <v>380</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="16">
+      <c r="H5" s="7"/>
+      <c r="I5" s="17">
         <f>SUM(E4:E31)</f>
         <v>2450</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
@@ -656,368 +656,368 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>7850</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1570</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
